--- a/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 12,61</t>
+          <t>-4,55; 12,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 19,42</t>
+          <t>-0,65; 18,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 25,61</t>
+          <t>3,16; 23,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 18,1</t>
+          <t>-4,98; 19,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 10,6</t>
+          <t>-13,47; 8,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 8,4</t>
+          <t>-10,73; 7,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 13,34</t>
+          <t>-2,25; 13,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 10,96</t>
+          <t>-3,79; 11,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 13,99</t>
+          <t>-0,81; 13,47</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 176,29</t>
+          <t>-31,83; 169,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 246,07</t>
+          <t>-8,06; 237,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 335,94</t>
+          <t>17,35; 317,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 81,08</t>
+          <t>-14,53; 84,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 49,86</t>
+          <t>-39,65; 40,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 38,19</t>
+          <t>-30,99; 33,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 82,04</t>
+          <t>-9,45; 90,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 68,23</t>
+          <t>-18,99; 65,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 83,7</t>
+          <t>-3,67; 81,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,74</t>
+          <t>1,02; 9,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 7,38</t>
+          <t>0,07; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,38</t>
+          <t>0,99; 8,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 11,37</t>
+          <t>1,92; 11,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 12,89</t>
+          <t>2,13; 12,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,63</t>
+          <t>-3,03; 5,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,85</t>
+          <t>2,77; 9,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 9,09</t>
+          <t>2,75; 8,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,11</t>
+          <t>0,64; 6,28</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 98,53</t>
+          <t>9,11; 110,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 82,1</t>
+          <t>0,44; 94,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 91,88</t>
+          <t>5,7; 100,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 66,93</t>
+          <t>9,17; 70,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 75,25</t>
+          <t>9,91; 74,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 34,01</t>
+          <t>-13,68; 34,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 67,33</t>
+          <t>17,5; 69,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 67,91</t>
+          <t>16,72; 67,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 47,0</t>
+          <t>4,13; 48,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,77</t>
+          <t>1,62; 7,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,78</t>
+          <t>0,69; 6,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 19,25</t>
+          <t>-0,43; 20,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,14</t>
+          <t>-0,94; 6,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,07</t>
+          <t>-1,74; 6,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,55</t>
+          <t>-2,85; 4,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,36</t>
+          <t>1,4; 6,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,51</t>
+          <t>0,22; 5,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 9,24</t>
+          <t>-0,2; 9,9</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 79,8</t>
+          <t>13,05; 78,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 70,17</t>
+          <t>5,17; 67,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 180,26</t>
+          <t>-4,03; 214,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 36,95</t>
+          <t>-4,0; 35,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 31,69</t>
+          <t>-7,4; 31,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 18,19</t>
+          <t>-12,32; 21,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 42,46</t>
+          <t>7,84; 42,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 35,42</t>
+          <t>0,88; 35,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 63,21</t>
+          <t>-1,59; 64,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,26</t>
+          <t>-3,86; 3,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,06</t>
+          <t>-3,1; 4,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,73</t>
+          <t>2,08; 9,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,49</t>
+          <t>-5,13; 3,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 1,09</t>
+          <t>-7,8; 0,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -1,15</t>
+          <t>-12,45; -0,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,62</t>
+          <t>-3,55; 2,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,49</t>
+          <t>-4,31; 1,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 3,22</t>
+          <t>-4,32; 3,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 31,71</t>
+          <t>-27,65; 36,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 39,29</t>
+          <t>-22,06; 42,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,92; 90,61</t>
+          <t>14,1; 93,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 16,12</t>
+          <t>-19,42; 16,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 4,76</t>
+          <t>-29,59; 4,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,17; -5,69</t>
+          <t>-47,31; -2,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 15,33</t>
+          <t>-17,48; 14,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 8,81</t>
+          <t>-21,29; 8,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 18,8</t>
+          <t>-22,08; 17,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,28</t>
+          <t>1,1; 7,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,7</t>
+          <t>-1,05; 4,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,03</t>
+          <t>1,4; 7,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,72</t>
+          <t>2,55; 10,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,58</t>
+          <t>-3,13; 3,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,5</t>
+          <t>0,94; 7,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,42</t>
+          <t>2,67; 7,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,42</t>
+          <t>-1,23; 3,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,57</t>
+          <t>2,0; 6,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,22; 77,71</t>
+          <t>8,96; 75,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 50,07</t>
+          <t>-9,39; 48,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,64; 75,1</t>
+          <t>11,48; 78,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,32; 53,35</t>
+          <t>11,11; 56,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 25,55</t>
+          <t>-14,36; 20,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,79; 41,01</t>
+          <t>4,05; 41,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,1; 52,38</t>
+          <t>16,17; 53,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 23,35</t>
+          <t>-7,59; 24,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,52; 46,14</t>
+          <t>12,32; 47,47</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>1,7; 5,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,32</t>
+          <t>1,01; 4,24</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,72</t>
+          <t>3,08; 9,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,95</t>
+          <t>1,57; 5,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,21</t>
+          <t>-0,79; 3,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,38</t>
+          <t>-2,6; 2,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,12</t>
+          <t>2,33; 5,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,28</t>
+          <t>0,72; 3,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,94</t>
+          <t>1,32; 5,09</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,07; 47,82</t>
+          <t>14,66; 50,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,67; 41,93</t>
+          <t>8,03; 40,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,31; 90,4</t>
+          <t>25,57; 87,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,64; 29,21</t>
+          <t>7,08; 28,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,63</t>
+          <t>-3,56; 17,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 11,75</t>
+          <t>-11,41; 11,95</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>14,06; 32,16</t>
+          <t>13,49; 32,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,8; 20,9</t>
+          <t>4,28; 21,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>7,45; 30,43</t>
+          <t>7,3; 31,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 12,65</t>
+          <t>-5,36; 11,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 18,85</t>
+          <t>-0,74; 19,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 23,76</t>
+          <t>3,59; 24,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 19,42</t>
+          <t>-5,72; 19,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 8,87</t>
+          <t>-12,62; 9,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 7,76</t>
+          <t>-10,18; 9,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 13,69</t>
+          <t>-1,95; 13,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 11,0</t>
+          <t>-4,09; 11,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 13,47</t>
+          <t>-0,11; 14,16</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 169,69</t>
+          <t>-31,31; 163,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 237,94</t>
+          <t>-7,43; 239,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 317,2</t>
+          <t>18,24; 328,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 84,04</t>
+          <t>-16,02; 89,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 40,64</t>
+          <t>-39,81; 39,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 33,21</t>
+          <t>-30,73; 43,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 90,82</t>
+          <t>-8,61; 76,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 65,83</t>
+          <t>-17,47; 66,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 81,18</t>
+          <t>-0,47; 89,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,31</t>
+          <t>0,9; 8,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 8,06</t>
+          <t>0,3; 7,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,74</t>
+          <t>0,86; 8,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,73</t>
+          <t>1,91; 11,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,42</t>
+          <t>2,68; 12,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,87</t>
+          <t>-3,42; 5,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,35</t>
+          <t>2,75; 9,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,82</t>
+          <t>2,56; 9,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,28</t>
+          <t>0,04; 6,05</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 110,12</t>
+          <t>7,22; 99,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 94,82</t>
+          <t>0,14; 86,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 100,65</t>
+          <t>5,85; 96,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 70,27</t>
+          <t>8,41; 66,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 74,19</t>
+          <t>12,52; 72,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 34,48</t>
+          <t>-14,98; 35,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,5; 69,3</t>
+          <t>16,39; 68,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 67,53</t>
+          <t>16,34; 68,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 48,55</t>
+          <t>0,52; 46,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,71</t>
+          <t>1,39; 7,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,5</t>
+          <t>0,5; 6,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 20,64</t>
+          <t>-0,34; 19,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,86</t>
+          <t>-0,56; 7,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,01</t>
+          <t>-1,78; 5,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,08</t>
+          <t>-2,98; 3,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,31</t>
+          <t>1,39; 6,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,37</t>
+          <t>0,31; 5,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 9,9</t>
+          <t>-0,26; 9,93</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,05; 78,48</t>
+          <t>10,97; 81,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 67,37</t>
+          <t>4,5; 66,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 214,93</t>
+          <t>-3,52; 203,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 35,28</t>
+          <t>-2,46; 39,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 31,61</t>
+          <t>-8,11; 30,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 21,25</t>
+          <t>-12,25; 20,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,84; 42,63</t>
+          <t>7,77; 42,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,88; 35,14</t>
+          <t>1,91; 37,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 64,59</t>
+          <t>-1,56; 64,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,71</t>
+          <t>-3,91; 3,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 4,2</t>
+          <t>-2,93; 3,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,63</t>
+          <t>2,34; 10,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,78</t>
+          <t>-5,4; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,98</t>
+          <t>-7,97; 0,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -0,66</t>
+          <t>-12,68; -1,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 2,54</t>
+          <t>-3,4; 2,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,46</t>
+          <t>-4,18; 1,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,07</t>
+          <t>-4,51; 3,15</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 36,15</t>
+          <t>-27,56; 32,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 42,03</t>
+          <t>-20,99; 38,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,1; 93,13</t>
+          <t>16,76; 100,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 16,94</t>
+          <t>-20,07; 18,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 4,71</t>
+          <t>-29,47; 2,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -2,99</t>
+          <t>-50,27; -5,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 14,72</t>
+          <t>-16,93; 14,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 8,68</t>
+          <t>-21,51; 11,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 17,88</t>
+          <t>-22,71; 17,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,22</t>
+          <t>1,07; 7,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,61</t>
+          <t>-1,09; 4,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,19</t>
+          <t>1,2; 7,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,24</t>
+          <t>2,51; 10,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,67</t>
+          <t>-3,52; 3,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,31</t>
+          <t>0,5; 7,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,6</t>
+          <t>2,58; 7,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,56</t>
+          <t>-1,5; 3,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,79</t>
+          <t>1,98; 6,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,96; 75,49</t>
+          <t>8,29; 74,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 48,07</t>
+          <t>-9,17; 49,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,48; 78,7</t>
+          <t>9,66; 73,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,11; 56,85</t>
+          <t>11,49; 57,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 20,2</t>
+          <t>-16,21; 22,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,05; 41,02</t>
+          <t>2,38; 42,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,17; 53,59</t>
+          <t>15,27; 49,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 24,69</t>
+          <t>-8,95; 23,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,32; 47,47</t>
+          <t>11,85; 47,81</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,28</t>
+          <t>1,74; 5,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,24</t>
+          <t>1,11; 4,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,74</t>
+          <t>3,01; 9,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,78</t>
+          <t>1,7; 6,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,55</t>
+          <t>-0,79; 3,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,44</t>
+          <t>-2,44; 2,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,05</t>
+          <t>2,36; 5,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,33</t>
+          <t>0,75; 3,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,09</t>
+          <t>1,43; 5,0</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,66; 50,7</t>
+          <t>14,38; 49,17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8,03; 40,57</t>
+          <t>8,58; 39,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,57; 87,3</t>
+          <t>25,7; 90,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,08; 28,32</t>
+          <t>7,76; 29,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 17,1</t>
+          <t>-3,58; 15,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 11,95</t>
+          <t>-10,81; 11,7</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>13,49; 32,03</t>
+          <t>13,74; 31,69</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,28; 21,34</t>
+          <t>4,37; 20,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>7,3; 31,66</t>
+          <t>8,3; 31,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 11,99</t>
+          <t>-5,52; 12,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 19,4</t>
+          <t>-0,76; 19,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 24,74</t>
+          <t>3,61; 25,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 19,44</t>
+          <t>-5,7; 18,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 9,52</t>
+          <t>-14,33; 10,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 9,21</t>
+          <t>-10,78; 8,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 13,3</t>
+          <t>-1,96; 13,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 11,33</t>
+          <t>-4,51; 10,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 14,16</t>
+          <t>0,3; 13,99</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 163,19</t>
+          <t>-33,29; 176,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 239,02</t>
+          <t>-5,09; 246,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 328,62</t>
+          <t>16,26; 335,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 89,52</t>
+          <t>-16,01; 81,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 39,76</t>
+          <t>-41,67; 49,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 43,58</t>
+          <t>-32,8; 38,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 76,49</t>
+          <t>-8,31; 82,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 66,85</t>
+          <t>-18,03; 68,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 89,91</t>
+          <t>1,25; 83,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 8,94</t>
+          <t>0,79; 8,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 7,78</t>
+          <t>0,03; 7,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,47</t>
+          <t>0,84; 8,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 11,45</t>
+          <t>1,6; 11,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 12,7</t>
+          <t>2,6; 12,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,79</t>
+          <t>-2,61; 5,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,22</t>
+          <t>2,71; 8,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 9,05</t>
+          <t>2,82; 9,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,05</t>
+          <t>0,35; 6,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 99,1</t>
+          <t>6,17; 98,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 86,86</t>
+          <t>-1,14; 82,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 96,84</t>
+          <t>6,41; 91,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 66,87</t>
+          <t>7,51; 66,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 72,51</t>
+          <t>11,5; 75,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 35,61</t>
+          <t>-11,43; 34,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,39; 68,46</t>
+          <t>16,87; 67,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 68,45</t>
+          <t>17,47; 67,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 46,07</t>
+          <t>2,02; 47,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,92</t>
+          <t>1,77; 7,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,41</t>
+          <t>0,71; 6,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 19,29</t>
+          <t>-0,61; 19,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,48</t>
+          <t>-0,96; 7,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,89</t>
+          <t>-1,71; 6,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 3,86</t>
+          <t>-3,17; 3,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,47</t>
+          <t>1,44; 6,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,51</t>
+          <t>0,47; 5,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 9,93</t>
+          <t>-0,51; 9,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,97; 81,87</t>
+          <t>13,45; 79,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 66,22</t>
+          <t>4,73; 70,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 203,84</t>
+          <t>-6,18; 180,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 39,72</t>
+          <t>-4,22; 36,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 30,88</t>
+          <t>-7,31; 31,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 20,33</t>
+          <t>-13,13; 18,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 42,81</t>
+          <t>8,45; 42,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,91; 37,69</t>
+          <t>2,75; 35,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 64,92</t>
+          <t>-3,17; 63,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,41</t>
+          <t>-3,58; 3,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 3,9</t>
+          <t>-3,16; 4,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 10,24</t>
+          <t>1,77; 9,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,0</t>
+          <t>-5,42; 3,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 0,3</t>
+          <t>-7,77; 1,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,68; -1,16</t>
+          <t>-12,97; -1,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,5</t>
+          <t>-3,29; 2,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,87</t>
+          <t>-4,57; 1,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,15</t>
+          <t>-4,06; 3,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 32,57</t>
+          <t>-25,66; 31,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 38,24</t>
+          <t>-22,27; 39,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,76; 100,6</t>
+          <t>10,92; 90,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 18,67</t>
+          <t>-20,29; 16,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 2,1</t>
+          <t>-29,91; 4,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,27; -5,79</t>
+          <t>-51,17; -5,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 14,93</t>
+          <t>-17,17; 15,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 11,19</t>
+          <t>-22,75; 8,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 17,9</t>
+          <t>-21,7; 18,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,14</t>
+          <t>1,06; 7,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,64</t>
+          <t>-1,16; 4,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,11</t>
+          <t>1,37; 7,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,24</t>
+          <t>2,27; 9,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,99</t>
+          <t>-3,26; 4,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,74</t>
+          <t>0,81; 7,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,28</t>
+          <t>2,48; 7,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 3,4</t>
+          <t>-1,34; 3,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,79</t>
+          <t>1,9; 6,57</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>8,29; 74,39</t>
+          <t>7,22; 77,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 49,73</t>
+          <t>-9,49; 50,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,66; 73,17</t>
+          <t>10,64; 75,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,49; 57,42</t>
+          <t>10,32; 53,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 22,19</t>
+          <t>-15,58; 25,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,38; 42,62</t>
+          <t>3,79; 41,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>15,27; 49,82</t>
+          <t>16,1; 52,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 23,16</t>
+          <t>-8,36; 23,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,85; 47,81</t>
+          <t>11,52; 46,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,17</t>
+          <t>1,72; 5,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,1</t>
+          <t>1,14; 4,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,82</t>
+          <t>3,03; 9,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,05</t>
+          <t>1,91; 5,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,22</t>
+          <t>-0,93; 3,21</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,41</t>
+          <t>-2,03; 2,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,0</t>
+          <t>2,43; 5,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,2</t>
+          <t>0,65; 3,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,0</t>
+          <t>1,28; 4,94</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,38; 49,17</t>
+          <t>14,07; 47,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8,58; 39,17</t>
+          <t>9,67; 41,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,7; 90,23</t>
+          <t>25,31; 90,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,76; 29,88</t>
+          <t>8,64; 29,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 15,71</t>
+          <t>-4,12; 15,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 11,7</t>
+          <t>-8,78; 11,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>13,74; 31,69</t>
+          <t>14,06; 32,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,37; 20,04</t>
+          <t>3,8; 20,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>8,3; 31,11</t>
+          <t>7,45; 30,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,66</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,33</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>3,25</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 12,61</t>
+          <t>1,33; 8,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 19,42</t>
+          <t>1,11; 8,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 25,61</t>
+          <t>1,99; 9,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 18,1</t>
+          <t>2,3; 11,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 10,6</t>
+          <t>0,58; 10,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 8,4</t>
+          <t>-4,75; 4,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 13,34</t>
+          <t>2,65; 8,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 10,96</t>
+          <t>2,4; 8,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 13,99</t>
+          <t>0,18; 5,91</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>116,92%</t>
+          <t>54,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,69%</t>
+          <t>20,72%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 176,29</t>
+          <t>10,88; 93,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 246,07</t>
+          <t>9,55; 92,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 335,94</t>
+          <t>15,15; 101,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 81,08</t>
+          <t>8,82; 58,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 49,86</t>
+          <t>2,31; 56,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 38,19</t>
+          <t>-21,01; 21,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 82,04</t>
+          <t>15,23; 59,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 68,23</t>
+          <t>13,89; 58,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 83,7</t>
+          <t>1,07; 42,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>18,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>9,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 8,74</t>
+          <t>1,77; 7,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 7,38</t>
+          <t>0,71; 6,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 8,38</t>
+          <t>-0,77; 51,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 11,37</t>
+          <t>-0,96; 7,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 12,89</t>
+          <t>-1,71; 6,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,63</t>
+          <t>-3,11; 3,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,85</t>
+          <t>1,44; 6,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 9,09</t>
+          <t>0,47; 5,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,11</t>
+          <t>-0,53; 33,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,0%</t>
+          <t>162,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>60,06%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 98,53</t>
+          <t>13,45; 79,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 82,1</t>
+          <t>4,73; 70,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 91,88</t>
+          <t>-6,93; 495,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 66,93</t>
+          <t>-4,22; 36,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 75,25</t>
+          <t>-7,31; 31,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 34,01</t>
+          <t>-13,0; 18,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 67,33</t>
+          <t>8,45; 42,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 67,91</t>
+          <t>2,75; 35,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 47,0</t>
+          <t>-3,18; 213,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-1,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,77</t>
+          <t>-3,58; 3,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,78</t>
+          <t>-3,16; 4,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 19,25</t>
+          <t>1,49; 9,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,14</t>
+          <t>-5,42; 3,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,07</t>
+          <t>-7,77; 1,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,55</t>
+          <t>-17,59; -2,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,36</t>
+          <t>-3,29; 2,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,51</t>
+          <t>-4,57; 1,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 9,24</t>
+          <t>-9,02; 1,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>-34,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>-8,99%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 79,8</t>
+          <t>-25,66; 31,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 70,17</t>
+          <t>-22,27; 39,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 180,26</t>
+          <t>9,8; 88,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 36,95</t>
+          <t>-20,29; 16,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 31,69</t>
+          <t>-29,91; 4,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 18,19</t>
+          <t>-66,42; -10,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 42,46</t>
+          <t>-17,17; 15,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 35,42</t>
+          <t>-22,75; 8,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 63,21</t>
+          <t>-44,85; 10,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>3,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,26</t>
+          <t>1,06; 7,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,06</t>
+          <t>-1,16; 4,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,73</t>
+          <t>0,98; 6,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,49</t>
+          <t>2,27; 9,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 1,09</t>
+          <t>-3,26; 4,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -1,15</t>
+          <t>-2,5; 6,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,62</t>
+          <t>2,48; 7,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,49</t>
+          <t>-1,34; 3,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 3,22</t>
+          <t>0,44; 5,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-23,89%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,87%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>20,93%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 31,71</t>
+          <t>7,22; 77,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 39,29</t>
+          <t>-9,49; 50,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,92; 90,61</t>
+          <t>8,02; 72,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 16,12</t>
+          <t>10,32; 53,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 4,76</t>
+          <t>-15,58; 25,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-51,17; -5,69</t>
+          <t>-10,47; 33,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 15,33</t>
+          <t>16,1; 52,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 8,81</t>
+          <t>-8,36; 23,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 18,8</t>
+          <t>3,45; 38,57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,28</t>
+          <t>1,72; 5,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,7</t>
+          <t>1,14; 4,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,03</t>
+          <t>2,97; 27,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,72</t>
+          <t>1,91; 5,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,58</t>
+          <t>-0,93; 3,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,5</t>
+          <t>-4,9; 1,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,42</t>
+          <t>2,43; 5,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,42</t>
+          <t>0,65; 3,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,57</t>
+          <t>0,83; 15,3</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>25,42%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,22; 77,71</t>
+          <t>14,07; 47,82</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 50,07</t>
+          <t>9,67; 41,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,64; 75,1</t>
+          <t>25,15; 248,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>10,32; 53,35</t>
+          <t>8,64; 29,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 25,55</t>
+          <t>-4,12; 15,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,79; 41,01</t>
+          <t>-21,92; 6,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>16,1; 52,38</t>
+          <t>14,06; 32,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 23,35</t>
+          <t>3,8; 20,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,52; 46,14</t>
+          <t>5,06; 89,45</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,7</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,91</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 5,02</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 4,32</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 9,72</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 5,95</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 3,21</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 2,38</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 5,12</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 3,28</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 4,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>31,07%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>24,15%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>45,93%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>18,23%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>22,65%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>12,0%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>14,07; 47,82</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>9,67; 41,93</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>25,31; 90,4</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>8,64; 29,21</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 15,63</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 11,75</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>14,06; 32,16</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 20,9</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 30,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 8,58</t>
+          <t>1,24; 7,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,49</t>
+          <t>1,55; 8,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,51</t>
+          <t>2,33; 9,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 11,06</t>
+          <t>2,05; 11,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 10,45</t>
+          <t>1,2; 10,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,1</t>
+          <t>-4,5; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,5</t>
+          <t>2,98; 8,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 8,45</t>
+          <t>2,51; 8,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,91</t>
+          <t>0,28; 6,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 93,81</t>
+          <t>10,64; 85,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 92,08</t>
+          <t>9,99; 95,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 101,46</t>
+          <t>18,25; 105,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 58,95</t>
+          <t>8,84; 59,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 56,02</t>
+          <t>5,5; 55,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 21,84</t>
+          <t>-20,18; 22,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,23; 59,46</t>
+          <t>17,72; 60,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,89; 58,52</t>
+          <t>15,53; 58,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 42,1</t>
+          <t>1,75; 45,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 7,77</t>
+          <t>1,47; 7,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,78</t>
+          <t>0,3; 6,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 51,17</t>
+          <t>-0,88; 50,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,14</t>
+          <t>-0,75; 6,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,07</t>
+          <t>-1,89; 5,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,52</t>
+          <t>-2,79; 3,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,36</t>
+          <t>1,21; 6,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,51</t>
+          <t>0,46; 5,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 33,59</t>
+          <t>-0,28; 33,61</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 79,8</t>
+          <t>12,07; 77,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 70,17</t>
+          <t>2,67; 66,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 495,35</t>
+          <t>-8,05; 515,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 36,95</t>
+          <t>-3,21; 36,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 31,69</t>
+          <t>-8,46; 30,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 18,38</t>
+          <t>-11,97; 18,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 42,46</t>
+          <t>7,05; 43,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 35,42</t>
+          <t>2,4; 36,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 213,41</t>
+          <t>-1,7; 216,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,26</t>
+          <t>-3,77; 3,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,06</t>
+          <t>-3,08; 4,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,41</t>
+          <t>1,78; 9,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,49</t>
+          <t>-5,39; 3,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 1,09</t>
+          <t>-8,25; 0,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,59; -2,29</t>
+          <t>-17,29; -2,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 2,62</t>
+          <t>-3,58; 2,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,49</t>
+          <t>-4,31; 1,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 1,93</t>
+          <t>-8,0; 1,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 31,71</t>
+          <t>-27,16; 34,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 39,29</t>
+          <t>-22,16; 41,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,8; 88,68</t>
+          <t>12,71; 93,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 16,12</t>
+          <t>-20,33; 15,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 4,76</t>
+          <t>-31,53; 2,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,42; -10,53</t>
+          <t>-66,23; -11,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 15,33</t>
+          <t>-18,22; 14,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 8,81</t>
+          <t>-21,85; 8,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 10,76</t>
+          <t>-40,65; 9,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,28</t>
+          <t>1,23; 7,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,7</t>
+          <t>-1,08; 4,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 6,75</t>
+          <t>1,08; 6,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,72</t>
+          <t>2,32; 9,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 4,58</t>
+          <t>-3,16; 3,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,1</t>
+          <t>-2,49; 5,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,42</t>
+          <t>2,67; 7,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,42</t>
+          <t>-1,15; 3,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,6</t>
+          <t>0,42; 5,73</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,22; 77,71</t>
+          <t>10,6; 72,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 50,07</t>
+          <t>-9,15; 51,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,02; 72,38</t>
+          <t>8,49; 71,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,32; 53,35</t>
+          <t>10,16; 53,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 25,55</t>
+          <t>-14,86; 21,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 33,22</t>
+          <t>-11,24; 32,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,1; 52,38</t>
+          <t>15,95; 51,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 23,35</t>
+          <t>-7,15; 24,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,45; 38,57</t>
+          <t>2,85; 39,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>1,89; 5,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,32</t>
+          <t>1,04; 4,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 27,19</t>
+          <t>2,99; 27,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,95</t>
+          <t>1,79; 5,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,21</t>
+          <t>-0,77; 3,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,26</t>
+          <t>-5,29; 1,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,12</t>
+          <t>2,31; 5,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,28</t>
+          <t>0,66; 3,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 15,3</t>
+          <t>0,66; 14,55</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,07; 47,82</t>
+          <t>15,04; 49,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>9,67; 41,93</t>
+          <t>8,69; 40,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,15; 248,6</t>
+          <t>25,68; 257,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,64; 29,21</t>
+          <t>8,08; 29,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,63</t>
+          <t>-3,36; 15,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 6,01</t>
+          <t>-23,53; 5,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>14,06; 32,16</t>
+          <t>13,25; 32,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,8; 20,9</t>
+          <t>3,56; 21,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,06; 89,45</t>
+          <t>3,72; 86,65</t>
         </is>
       </c>
     </row>
